--- a/WolLu/de-identification/TestExcelFiles/result.xlsx
+++ b/WolLu/de-identification/TestExcelFiles/result.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>78</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>54</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>45</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>57</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>45</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>61</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>48</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>76</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>53</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>31</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>76</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>63</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>59</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>29</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>58</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>63</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>76</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>67</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>48</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>65</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>77</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>22</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>55</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>45</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>75</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>72</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>28</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>36</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>23</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>42</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>45</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>79</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>43</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>74</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>79</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>77</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>57</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>39</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>34</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>62</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>59</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>67</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>69</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>38</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>42</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>45</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>47</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>42</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>35</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>22</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>47</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>49</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>21</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>66</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>64</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>31</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>31</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>56</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>43</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>68</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>78</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>64</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>56</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>49</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>29</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>25</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>28</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>60</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>59</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>52</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>33</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>66</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>30</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>37</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>45</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>46</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>46</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>22</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>58</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>40</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>49</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>72</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>29</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>36</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>48</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>74</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>17.94574044167585</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>

--- a/WolLu/de-identification/TestExcelFiles/result.xlsx
+++ b/WolLu/de-identification/TestExcelFiles/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,30 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>회원번호</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>회원번호</t>
+          <t>이름</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>이름</t>
+          <t>성별</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>성별</t>
+          <t>나이</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>나이</t>
+          <t>생일</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>생일</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>전화번호</t>
         </is>
@@ -475,30 +470,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
         <v>10001</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>서유성</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>서유성</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2월 28일</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>2월 28일</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>010-5679-1876</t>
         </is>
@@ -509,30 +501,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>10002</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>이창우</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>이창우</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10월 13일</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>10월 13일</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>010-6457-3040</t>
         </is>
@@ -543,30 +532,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
         <v>10003</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>박상석</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>박상석</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>41</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7월 14일</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>7월 14일</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>010-0029-8142</t>
         </is>
@@ -577,30 +563,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
         <v>10004</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>이숭새</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>이숭새</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9월 19일</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>9월 19일</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>010-4174-6291</t>
         </is>
@@ -611,30 +594,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
         <v>10005</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>유상균</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>유상균</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>41</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3월 4일</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>3월 4일</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>010-7490-4261</t>
         </is>
@@ -645,30 +625,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
         <v>10006</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>황건연</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>황건연</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>41</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2월 17일</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>2월 17일</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>010-3302-1004</t>
         </is>
@@ -679,30 +656,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
         <v>10007</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>지태하</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>지태하</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>35</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4월 1일</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>4월 1일</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>010-1525-1471</t>
         </is>
@@ -713,30 +687,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
         <v>10008</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>임회도</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>임회도</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>46</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6월 5일</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>6월 5일</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>010-4058-4674</t>
         </is>
@@ -747,30 +718,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
         <v>10009</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>김상영</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>김상영</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>44</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2월 23일</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>2월 23일</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>010-6582-2504</t>
         </is>
@@ -781,30 +749,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
         <v>10010</v>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>김호원</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>김호원</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>69</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4월 18일</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>4월 18일</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>010-0856-8143</t>
         </is>
@@ -815,30 +780,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
         <v>10011</v>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>천혀순</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>천혀순</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7월 17일</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
-        <is>
-          <t>7월 17일</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
         <is>
           <t>010-3348-2993</t>
         </is>
@@ -849,30 +811,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
         <v>10012</v>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>김창숙</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>김창숙</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>47</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6월 23일</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
-        <is>
-          <t>6월 23일</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
         <is>
           <t>010-3468-3331</t>
         </is>
@@ -883,30 +842,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
         <v>10013</v>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>송잔하</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>송잔하</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>57</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4월 24일</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>4월 24일</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>010-2957-8069</t>
         </is>
@@ -917,30 +873,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
         <v>10014</v>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>김수미</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>김수미</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>63</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2월 19일</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
-        <is>
-          <t>2월 19일</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>010-3662-3672</t>
         </is>
@@ -951,30 +904,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
         <v>10015</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>박긍하</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>박긍하</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>42</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5월 5일</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>5월 5일</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
         <is>
           <t>010-4183-3988</t>
         </is>
@@ -985,30 +935,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
         <v>10016</v>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>송이하</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>송이하</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>53</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4월 6일</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>4월 6일</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t>010-4315-4398</t>
         </is>
@@ -1019,30 +966,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
         <v>10017</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>이재하</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>이재하</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>66</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6월 15일</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>6월 15일</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>010-6507-4128</t>
         </is>
@@ -1053,30 +997,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
         <v>10018</v>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>김동운</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>김동운</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>78</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>11월 22일</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
-        <is>
-          <t>11월 22일</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t>010-2383-6415</t>
         </is>
@@ -1087,30 +1028,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
         <v>10019</v>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>박춘영</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>박춘영</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>74</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1월 2일</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>1월 2일</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>010-1117-9109</t>
         </is>
@@ -1121,30 +1059,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
         <v>10020</v>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>배유하</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>배유하</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>25</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4월 5일</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>4월 5일</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
         <is>
           <t>010-7721-9869</t>
         </is>
@@ -1155,30 +1090,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
         <v>10021</v>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>강혀웅</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>강혀웅</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>63</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8월 6일</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>8월 6일</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>010-1705-0697</t>
         </is>
@@ -1189,30 +1121,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
         <v>10022</v>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>이남원</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>이남원</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>34</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3월 2일</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
-        <is>
-          <t>3월 2일</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
         <is>
           <t>010-1811-8176</t>
         </is>
@@ -1223,30 +1152,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
         <v>10023</v>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>조동세</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>조동세</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>66</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8월 16일</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
-        <is>
-          <t>8월 16일</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
         <is>
           <t>010-7940-7779</t>
         </is>
@@ -1257,30 +1183,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
         <v>10024</v>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>허혀하</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>허혀하</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>43</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>11월 30일</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
-        <is>
-          <t>11월 30일</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>010-4755-8624</t>
         </is>
@@ -1291,30 +1214,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
         <v>10025</v>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>박혀하</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>박혀하</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7월 9일</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
-        <is>
-          <t>7월 9일</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>010-0111-9531</t>
         </is>
@@ -1325,30 +1245,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
         <v>10026</v>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>조성찬</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>조성찬</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1월 18일</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
-        <is>
-          <t>1월 18일</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>010-1343-6606</t>
         </is>
@@ -1359,30 +1276,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
         <v>10027</v>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>김광하</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>김광하</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2월 27일</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
-        <is>
-          <t>2월 27일</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
         <is>
           <t>010-3175-5169</t>
         </is>
@@ -1393,30 +1307,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
         <v>10028</v>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>강성석</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>강성석</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>43</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>11월 16일</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
-        <is>
-          <t>11월 16일</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
         <is>
           <t>010-7655-1088</t>
         </is>
@@ -1427,30 +1338,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
         <v>10029</v>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>김산하</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>김산하</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>29</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3월 19일</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>3월 19일</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>010-4387-3491</t>
         </is>
@@ -1461,30 +1369,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
-      </c>
-      <c r="C31" t="n">
         <v>10030</v>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>이혀하</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>이혀하</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>76</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8월 15일</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
-        <is>
-          <t>8월 15일</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>010-1300-1030</t>
         </is>
@@ -1495,30 +1400,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" t="n">
         <v>10031</v>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>정동섭</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>정동섭</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>62</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1월 3일</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
-        <is>
-          <t>1월 3일</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>010-0460-8118</t>
         </is>
@@ -1529,30 +1431,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
-      </c>
-      <c r="C33" t="n">
         <v>10032</v>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>최춘원</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>최춘원</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>45</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7월 15일</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
-        <is>
-          <t>7월 15일</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
         <is>
           <t>010-2351-7898</t>
         </is>
@@ -1563,30 +1462,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="n">
         <v>10033</v>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>안상성</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>안상성</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>61</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6월 19일</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
-        <is>
-          <t>6월 19일</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
         <is>
           <t>010-9441-8632</t>
         </is>
@@ -1597,30 +1493,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>33</v>
-      </c>
-      <c r="C35" t="n">
         <v>10034</v>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>정해찬</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>정해찬</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>77</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10월 16일</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
-        <is>
-          <t>10월 16일</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
         <is>
           <t>010-1773-3114</t>
         </is>
@@ -1631,30 +1524,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
-      </c>
-      <c r="C36" t="n">
         <v>10035</v>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>송태하</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>송태하</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>21</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2월 3일</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
-        <is>
-          <t>2월 3일</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
         <is>
           <t>010-9277-2116</t>
         </is>
@@ -1665,30 +1555,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35</v>
-      </c>
-      <c r="C37" t="n">
         <v>10036</v>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>전준거</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>전준거</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>74</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7월 19일</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
-        <is>
-          <t>7월 19일</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
         <is>
           <t>010-3997-6879</t>
         </is>
@@ -1699,30 +1586,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
-      </c>
-      <c r="C38" t="n">
         <v>10037</v>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>정주순</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>정주순</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>67</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2월 12일</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
-        <is>
-          <t>2월 12일</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
         <is>
           <t>010-3315-0046</t>
         </is>
@@ -1733,30 +1617,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>37</v>
-      </c>
-      <c r="C39" t="n">
         <v>10038</v>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>이승우</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>이승우</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>68</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6월 16일</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
-        <is>
-          <t>6월 16일</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
         <is>
           <t>010-2770-4286</t>
         </is>
@@ -1767,30 +1648,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
-      </c>
-      <c r="C40" t="n">
         <v>10039</v>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>한재하</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>한재하</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>76</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6월 25일</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
-        <is>
-          <t>6월 25일</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
         <is>
           <t>010-8062-2076</t>
         </is>
@@ -1801,30 +1679,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>39</v>
-      </c>
-      <c r="C41" t="n">
         <v>10040</v>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>황혀우</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>황혀우</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>59</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10월 2일</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
-        <is>
-          <t>10월 2일</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
         <is>
           <t>010-6479-2851</t>
         </is>
@@ -1835,30 +1710,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
-      </c>
-      <c r="C42" t="n">
         <v>10041</v>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>변원찬</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>변원찬</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>46</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4월 6일</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
-        <is>
-          <t>4월 6일</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
         <is>
           <t>010-3813-1494</t>
         </is>
@@ -1869,30 +1741,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41</v>
-      </c>
-      <c r="C43" t="n">
         <v>10042</v>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>김의운</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>김의운</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>64</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7월 13일</t>
+        </is>
       </c>
       <c r="G43" t="inlineStr">
-        <is>
-          <t>7월 13일</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
         <is>
           <t>010-2720-1886</t>
         </is>
@@ -1903,30 +1772,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>42</v>
-      </c>
-      <c r="C44" t="n">
         <v>10043</v>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>박미하</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>박미하</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>30</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6월 2일</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
-        <is>
-          <t>6월 2일</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
         <is>
           <t>010-8718-6495</t>
         </is>
@@ -1937,30 +1803,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>43</v>
-      </c>
-      <c r="C45" t="n">
         <v>10044</v>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>이이재</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>이이재</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>22</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8월 14일</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
-        <is>
-          <t>8월 14일</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
         <is>
           <t>010-7175-2964</t>
         </is>
@@ -1971,30 +1834,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>44</v>
-      </c>
-      <c r="C46" t="n">
         <v>10045</v>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>김지석</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>김지석</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>45</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4월 7일</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
-        <is>
-          <t>4월 7일</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
         <is>
           <t>010-1468-8744</t>
         </is>
@@ -2005,30 +1865,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>45</v>
-      </c>
-      <c r="C47" t="n">
         <v>10046</v>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>김승하</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>김승하</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>49</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9월 9일</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
-        <is>
-          <t>9월 9일</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
         <is>
           <t>010-5718-7510</t>
         </is>
@@ -2039,30 +1896,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>46</v>
-      </c>
-      <c r="C48" t="n">
         <v>10047</v>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>김영규</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>김영규</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>28</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8월 2일</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
-        <is>
-          <t>8월 2일</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
         <is>
           <t>010-4149-0415</t>
         </is>
@@ -2073,30 +1927,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
-      </c>
-      <c r="C49" t="n">
         <v>10048</v>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>조찬번</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>조찬번</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>26</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>11월 15일</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
-        <is>
-          <t>11월 15일</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
         <is>
           <t>010-7810-8331</t>
         </is>
@@ -2107,30 +1958,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>48</v>
-      </c>
-      <c r="C50" t="n">
         <v>10049</v>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>이용천</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>이용천</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>79</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6월 12일</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
-        <is>
-          <t>6월 12일</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
         <is>
           <t>010-5786-8850</t>
         </is>
@@ -2141,30 +1989,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>49</v>
-      </c>
-      <c r="C51" t="n">
         <v>10050</v>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>장하찬</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>장하찬</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>36</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9월 26일</t>
+        </is>
       </c>
       <c r="G51" t="inlineStr">
-        <is>
-          <t>9월 26일</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
         <is>
           <t>010-7872-3840</t>
         </is>
@@ -2175,30 +2020,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>50</v>
-      </c>
-      <c r="C52" t="n">
         <v>10051</v>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>심성하</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>심성하</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>55</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7월 7일</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
-        <is>
-          <t>7월 7일</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
         <is>
           <t>010-8458-3958</t>
         </is>
@@ -2209,30 +2051,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>51</v>
-      </c>
-      <c r="C53" t="n">
         <v>10052</v>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>김원윤</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>김원윤</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>58</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8월 21일</t>
+        </is>
       </c>
       <c r="G53" t="inlineStr">
-        <is>
-          <t>8월 21일</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
         <is>
           <t>010-4991-4086</t>
         </is>
@@ -2243,30 +2082,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>52</v>
-      </c>
-      <c r="C54" t="n">
         <v>10053</v>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>홍도양</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>홍도양</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>72</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4월 19일</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
-        <is>
-          <t>4월 19일</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
         <is>
           <t>010-6605-9608</t>
         </is>
@@ -2277,30 +2113,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>53</v>
-      </c>
-      <c r="C55" t="n">
         <v>10054</v>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>장장수</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>장장수</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>52</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7월 6일</t>
+        </is>
       </c>
       <c r="G55" t="inlineStr">
-        <is>
-          <t>7월 6일</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
         <is>
           <t>010-6027-0060</t>
         </is>
@@ -2311,30 +2144,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>54</v>
-      </c>
-      <c r="C56" t="n">
         <v>10055</v>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>김영하</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>김영하</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>31</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3월 23일</t>
+        </is>
       </c>
       <c r="G56" t="inlineStr">
-        <is>
-          <t>3월 23일</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
         <is>
           <t>010-4304-0129</t>
         </is>
@@ -2345,30 +2175,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>55</v>
-      </c>
-      <c r="C57" t="n">
         <v>10056</v>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>선동하</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>선동하</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>31</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9월 21일</t>
+        </is>
       </c>
       <c r="G57" t="inlineStr">
-        <is>
-          <t>9월 21일</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
         <is>
           <t>010-3926-8269</t>
         </is>
@@ -2379,30 +2206,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>56</v>
-      </c>
-      <c r="C58" t="n">
         <v>10057</v>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>하승수</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>하승수</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>36</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2월 28일</t>
+        </is>
       </c>
       <c r="G58" t="inlineStr">
-        <is>
-          <t>2월 28일</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
         <is>
           <t>010-9943-1853</t>
         </is>
@@ -2413,30 +2237,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>57</v>
-      </c>
-      <c r="C59" t="n">
         <v>10058</v>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>배경하</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>배경하</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>56</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9월 17일</t>
+        </is>
       </c>
       <c r="G59" t="inlineStr">
-        <is>
-          <t>9월 17일</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
         <is>
           <t>010-6612-6015</t>
         </is>
@@ -2447,30 +2268,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>58</v>
-      </c>
-      <c r="C60" t="n">
         <v>10059</v>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>노응원</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>노응원</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>77</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1월 10일</t>
+        </is>
       </c>
       <c r="G60" t="inlineStr">
-        <is>
-          <t>1월 10일</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
         <is>
           <t>010-8803-7994</t>
         </is>
@@ -2481,30 +2299,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>59</v>
-      </c>
-      <c r="C61" t="n">
         <v>10060</v>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>이창우</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>이창우</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>48</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>11월 25일</t>
+        </is>
       </c>
       <c r="G61" t="inlineStr">
-        <is>
-          <t>11월 25일</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
         <is>
           <t>010-0953-8781</t>
         </is>
@@ -2515,30 +2330,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>60</v>
-      </c>
-      <c r="C62" t="n">
         <v>10061</v>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>전지전</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>전지전</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>29</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2월 12일</t>
+        </is>
       </c>
       <c r="G62" t="inlineStr">
-        <is>
-          <t>2월 12일</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
         <is>
           <t>010-6730-8160</t>
         </is>
@@ -2549,30 +2361,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>61</v>
-      </c>
-      <c r="C63" t="n">
         <v>10062</v>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>김상하</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>김상하</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>72</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4월 3일</t>
+        </is>
       </c>
       <c r="G63" t="inlineStr">
-        <is>
-          <t>4월 3일</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
         <is>
           <t>010-2386-6901</t>
         </is>
@@ -2583,30 +2392,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>62</v>
-      </c>
-      <c r="C64" t="n">
         <v>10063</v>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>이균하</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>이균하</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>76</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8월 18일</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
-        <is>
-          <t>8월 18일</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
         <is>
           <t>010-2922-8223</t>
         </is>
@@ -2617,30 +2423,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>63</v>
-      </c>
-      <c r="C65" t="n">
         <v>10064</v>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>전피용</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>전피용</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>37</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6월 30일</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
-        <is>
-          <t>6월 30일</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
         <is>
           <t>010-3259-0881</t>
         </is>
@@ -2651,30 +2454,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>64</v>
-      </c>
-      <c r="C66" t="n">
         <v>10065</v>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>권준성</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>권준성</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>79</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9월 30일</t>
+        </is>
       </c>
       <c r="G66" t="inlineStr">
-        <is>
-          <t>9월 30일</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
         <is>
           <t>010-4407-0737</t>
         </is>
@@ -2685,30 +2485,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>65</v>
-      </c>
-      <c r="C67" t="n">
         <v>10066</v>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>오세규</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>오세규</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>20</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6월 26일</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
-        <is>
-          <t>6월 26일</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
         <is>
           <t>010-2131-9190</t>
         </is>
@@ -2719,30 +2516,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>66</v>
-      </c>
-      <c r="C68" t="n">
         <v>10067</v>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>이재선</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>이재선</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>30</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>11월 12일</t>
+        </is>
       </c>
       <c r="G68" t="inlineStr">
-        <is>
-          <t>11월 12일</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
         <is>
           <t>010-1968-2981</t>
         </is>
@@ -2753,30 +2547,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>67</v>
-      </c>
-      <c r="C69" t="n">
         <v>10068</v>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>심운욱</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>심운욱</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>49</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3월 16일</t>
+        </is>
       </c>
       <c r="G69" t="inlineStr">
-        <is>
-          <t>3월 16일</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
         <is>
           <t>010-5951-3703</t>
         </is>
@@ -2787,30 +2578,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68</v>
-      </c>
-      <c r="C70" t="n">
         <v>10069</v>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>석성운</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>석성운</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>22</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6월 26일</t>
+        </is>
       </c>
       <c r="G70" t="inlineStr">
-        <is>
-          <t>6월 26일</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
         <is>
           <t>010-8839-7192</t>
         </is>
@@ -2821,30 +2609,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>69</v>
-      </c>
-      <c r="C71" t="n">
         <v>10070</v>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>황지용</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>황지용</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>17.94574044167585</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>42</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6월 12일</t>
+        </is>
       </c>
       <c r="G71" t="inlineStr">
-        <is>
-          <t>6월 12일</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
         <is>
           <t>010-2500-5581</t>
         </is>
@@ -2855,30 +2640,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>70</v>
-      </c>
-      <c r="C72" t="n">
         <v>10071</v>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>오서지</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>오서지</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>17.94574044167585</v>
+      <c r="E72" t="n">
+        <v>64</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7월 12일</t>
+        </is>
       </c>
       <c r="G72" t="inlineStr">
-        <is>
-          <t>7월 12일</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
         <is>
           <t>010-1043-3168</t>
         </is>
@@ -2889,30 +2671,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>71</v>
-      </c>
-      <c r="C73" t="n">
         <v>10072</v>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>최푸은</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>최푸은</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>17.94574044167585</v>
+      <c r="E73" t="n">
+        <v>22</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3월 18일</t>
+        </is>
       </c>
       <c r="G73" t="inlineStr">
-        <is>
-          <t>3월 18일</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
         <is>
           <t>010-6529-0813</t>
         </is>
@@ -2923,30 +2702,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>72</v>
-      </c>
-      <c r="C74" t="n">
         <v>10073</v>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>안하경</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>안하경</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>17.94574044167585</v>
+      <c r="E74" t="n">
+        <v>57</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>11월 13일</t>
+        </is>
       </c>
       <c r="G74" t="inlineStr">
-        <is>
-          <t>11월 13일</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
         <is>
           <t>010-8635-7260</t>
         </is>
@@ -2957,30 +2733,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>73</v>
-      </c>
-      <c r="C75" t="n">
         <v>10074</v>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>주서은</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>주서은</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>17.94574044167585</v>
+      <c r="E75" t="n">
+        <v>38</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6월 29일</t>
+        </is>
       </c>
       <c r="G75" t="inlineStr">
-        <is>
-          <t>6월 29일</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
         <is>
           <t>010-5869-6444</t>
         </is>
@@ -2991,30 +2764,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>74</v>
-      </c>
-      <c r="C76" t="n">
         <v>10075</v>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>강유연</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>강유연</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>17.94574044167585</v>
+      <c r="E76" t="n">
+        <v>65</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4월 12일</t>
+        </is>
       </c>
       <c r="G76" t="inlineStr">
-        <is>
-          <t>4월 12일</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
         <is>
           <t>010-4472-8254</t>
         </is>
@@ -3025,30 +2795,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>10076</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>임재서</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
         <v>75</v>
       </c>
-      <c r="C77" t="n">
-        <v>10076</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>임재서</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>17.94574044167585</v>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6월 17일</t>
+        </is>
       </c>
       <c r="G77" t="inlineStr">
-        <is>
-          <t>6월 17일</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
         <is>
           <t>010-8560-1306</t>
         </is>
@@ -3059,30 +2826,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>76</v>
-      </c>
-      <c r="C78" t="n">
         <v>10077</v>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>전미서</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>전미서</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>17.94574044167585</v>
+      <c r="E78" t="n">
+        <v>59</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5월 14일</t>
+        </is>
       </c>
       <c r="G78" t="inlineStr">
-        <is>
-          <t>5월 14일</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
         <is>
           <t>010-7257-7245</t>
         </is>
@@ -3093,30 +2857,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>77</v>
-      </c>
-      <c r="C79" t="n">
         <v>10078</v>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>서하연</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>서하연</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>17.94574044167585</v>
+      <c r="E79" t="n">
+        <v>33</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>11월 8일</t>
+        </is>
       </c>
       <c r="G79" t="inlineStr">
-        <is>
-          <t>11월 8일</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
         <is>
           <t>010-3583-0515</t>
         </is>
@@ -3127,30 +2888,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>78</v>
-      </c>
-      <c r="C80" t="n">
         <v>10079</v>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>이지나</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>이지나</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>17.94574044167585</v>
+      <c r="E80" t="n">
+        <v>58</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6월 25일</t>
+        </is>
       </c>
       <c r="G80" t="inlineStr">
-        <is>
-          <t>6월 25일</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
         <is>
           <t>010-5098-0006</t>
         </is>
@@ -3161,30 +2919,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>79</v>
-      </c>
-      <c r="C81" t="n">
         <v>10080</v>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>김소은</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>김소은</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>17.94574044167585</v>
+      <c r="E81" t="n">
+        <v>45</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4월 7일</t>
+        </is>
       </c>
       <c r="G81" t="inlineStr">
-        <is>
-          <t>4월 7일</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
         <is>
           <t>010-4682-3525</t>
         </is>
@@ -3195,30 +2950,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>80</v>
-      </c>
-      <c r="C82" t="n">
         <v>10081</v>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>송미연</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>송미연</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>17.94574044167585</v>
+      <c r="E82" t="n">
+        <v>30</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2월 20일</t>
+        </is>
       </c>
       <c r="G82" t="inlineStr">
-        <is>
-          <t>2월 20일</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
         <is>
           <t>010-1987-1379</t>
         </is>
@@ -3229,30 +2981,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>81</v>
-      </c>
-      <c r="C83" t="n">
         <v>10082</v>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>여채서</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>여채서</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>17.94574044167585</v>
+      <c r="E83" t="n">
+        <v>34</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6월 15일</t>
+        </is>
       </c>
       <c r="G83" t="inlineStr">
-        <is>
-          <t>6월 15일</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
         <is>
           <t>010-2253-1225</t>
         </is>
@@ -3263,30 +3012,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>82</v>
-      </c>
-      <c r="C84" t="n">
         <v>10083</v>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>정시하</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>정시하</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>17.94574044167585</v>
+      <c r="E84" t="n">
+        <v>27</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5월 3일</t>
+        </is>
       </c>
       <c r="G84" t="inlineStr">
-        <is>
-          <t>5월 3일</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
         <is>
           <t>010-9198-9170</t>
         </is>
@@ -3297,30 +3043,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>83</v>
-      </c>
-      <c r="C85" t="n">
         <v>10084</v>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>이규윤</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>이규윤</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>17.94574044167585</v>
+      <c r="E85" t="n">
+        <v>54</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7월 25일</t>
+        </is>
       </c>
       <c r="G85" t="inlineStr">
-        <is>
-          <t>7월 25일</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
         <is>
           <t>010-6655-8325</t>
         </is>
@@ -3331,30 +3074,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>84</v>
-      </c>
-      <c r="C86" t="n">
         <v>10085</v>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>김유경</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>김유경</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F86" t="n">
-        <v>17.94574044167585</v>
+      <c r="E86" t="n">
+        <v>23</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>10월 2일</t>
+        </is>
       </c>
       <c r="G86" t="inlineStr">
-        <is>
-          <t>10월 2일</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
         <is>
           <t>010-0388-8175</t>
         </is>
@@ -3365,30 +3105,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>85</v>
-      </c>
-      <c r="C87" t="n">
         <v>10086</v>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>송지나</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>송지나</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>17.94574044167585</v>
+      <c r="E87" t="n">
+        <v>56</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7월 14일</t>
+        </is>
       </c>
       <c r="G87" t="inlineStr">
-        <is>
-          <t>7월 14일</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
         <is>
           <t>010-5680-3347</t>
         </is>
@@ -3399,30 +3136,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>86</v>
-      </c>
-      <c r="C88" t="n">
         <v>10087</v>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>천서하</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>천서하</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>17.94574044167585</v>
+      <c r="E88" t="n">
+        <v>39</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>10월 26일</t>
+        </is>
       </c>
       <c r="G88" t="inlineStr">
-        <is>
-          <t>10월 26일</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
         <is>
           <t>010-7039-4257</t>
         </is>
@@ -3433,30 +3167,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>87</v>
-      </c>
-      <c r="C89" t="n">
         <v>10088</v>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>박예윤</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>박예윤</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>17.94574044167585</v>
+      <c r="E89" t="n">
+        <v>59</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1월 22일</t>
+        </is>
       </c>
       <c r="G89" t="inlineStr">
-        <is>
-          <t>1월 22일</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
         <is>
           <t>010-5536-1459</t>
         </is>
@@ -3467,30 +3198,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>88</v>
-      </c>
-      <c r="C90" t="n">
         <v>10089</v>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>이연비</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>이연비</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>17.94574044167585</v>
+      <c r="E90" t="n">
+        <v>48</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>11월 19일</t>
+        </is>
       </c>
       <c r="G90" t="inlineStr">
-        <is>
-          <t>11월 19일</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
         <is>
           <t>010-6346-4743</t>
         </is>
@@ -3501,30 +3229,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>89</v>
-      </c>
-      <c r="C91" t="n">
         <v>10090</v>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>박수원</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>박수원</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>17.94574044167585</v>
+      <c r="E91" t="n">
+        <v>45</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>9월 20일</t>
+        </is>
       </c>
       <c r="G91" t="inlineStr">
-        <is>
-          <t>9월 20일</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
         <is>
           <t>010-3338-7832</t>
         </is>
@@ -3535,30 +3260,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>90</v>
-      </c>
-      <c r="C92" t="n">
         <v>10091</v>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>이유연</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>이유연</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>17.94574044167585</v>
+      <c r="E92" t="n">
+        <v>48</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6월 14일</t>
+        </is>
       </c>
       <c r="G92" t="inlineStr">
-        <is>
-          <t>6월 14일</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
         <is>
           <t>010-8770-5667</t>
         </is>
@@ -3569,30 +3291,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>91</v>
-      </c>
-      <c r="C93" t="n">
         <v>10092</v>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>박은하</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>박은하</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F93" t="n">
-        <v>17.94574044167585</v>
+      <c r="E93" t="n">
+        <v>24</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6월 25일</t>
+        </is>
       </c>
       <c r="G93" t="inlineStr">
-        <is>
-          <t>6월 25일</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
         <is>
           <t>010-2095-6737</t>
         </is>
@@ -3603,30 +3322,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>92</v>
-      </c>
-      <c r="C94" t="n">
         <v>10093</v>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>문이리</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>문이리</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F94" t="n">
-        <v>17.94574044167585</v>
+      <c r="E94" t="n">
+        <v>28</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6월 16일</t>
+        </is>
       </c>
       <c r="G94" t="inlineStr">
-        <is>
-          <t>6월 16일</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
         <is>
           <t>010-6045-3129</t>
         </is>
@@ -3637,30 +3353,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>93</v>
-      </c>
-      <c r="C95" t="n">
         <v>10094</v>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>임지란</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>임지란</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F95" t="n">
-        <v>17.94574044167585</v>
+      <c r="E95" t="n">
+        <v>22</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>10월 4일</t>
+        </is>
       </c>
       <c r="G95" t="inlineStr">
-        <is>
-          <t>10월 4일</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
         <is>
           <t>010-5892-3692</t>
         </is>
@@ -3671,30 +3384,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>94</v>
-      </c>
-      <c r="C96" t="n">
         <v>10095</v>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>문하준</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>문하준</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F96" t="n">
-        <v>17.94574044167585</v>
+      <c r="E96" t="n">
+        <v>45</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8월 24일</t>
+        </is>
       </c>
       <c r="G96" t="inlineStr">
-        <is>
-          <t>8월 24일</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
         <is>
           <t>010-4938-1963</t>
         </is>
@@ -3705,30 +3415,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>95</v>
-      </c>
-      <c r="C97" t="n">
         <v>10096</v>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>설은수</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>설은수</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>17.94574044167585</v>
+      <c r="E97" t="n">
+        <v>42</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>11월 13일</t>
+        </is>
       </c>
       <c r="G97" t="inlineStr">
-        <is>
-          <t>11월 13일</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
         <is>
           <t>010-5900-9831</t>
         </is>
@@ -3739,30 +3446,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>96</v>
-      </c>
-      <c r="C98" t="n">
         <v>10097</v>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>김하연</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>김하연</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F98" t="n">
-        <v>17.94574044167585</v>
+      <c r="E98" t="n">
+        <v>28</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>11월 5일</t>
+        </is>
       </c>
       <c r="G98" t="inlineStr">
-        <is>
-          <t>11월 5일</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
         <is>
           <t>010-4654-6803</t>
         </is>
@@ -3773,30 +3477,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>97</v>
-      </c>
-      <c r="C99" t="n">
         <v>10098</v>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>최서리</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>최서리</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F99" t="n">
-        <v>17.94574044167585</v>
+      <c r="E99" t="n">
+        <v>47</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>11월 18일</t>
+        </is>
       </c>
       <c r="G99" t="inlineStr">
-        <is>
-          <t>11월 18일</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
         <is>
           <t>010-6360-8369</t>
         </is>
@@ -3807,30 +3508,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>98</v>
-      </c>
-      <c r="C100" t="n">
         <v>10099</v>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>송시라</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>송시라</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F100" t="n">
-        <v>17.94574044167585</v>
+      <c r="E100" t="n">
+        <v>49</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>10월 25일</t>
+        </is>
       </c>
       <c r="G100" t="inlineStr">
-        <is>
-          <t>10월 25일</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
         <is>
           <t>010-9165-2751</t>
         </is>
@@ -3841,30 +3539,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>99</v>
-      </c>
-      <c r="C101" t="n">
         <v>10100</v>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>진다소</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>진다소</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="F101" t="n">
-        <v>17.94574044167585</v>
+      <c r="E101" t="n">
+        <v>67</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1월 12일</t>
+        </is>
       </c>
       <c r="G101" t="inlineStr">
-        <is>
-          <t>1월 12일</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
         <is>
           <t>010-5054-3714</t>
         </is>
